--- a/biology/Botanique/Tabebuia_roseo-alba/Tabebuia_roseo-alba.xlsx
+++ b/biology/Botanique/Tabebuia_roseo-alba/Tabebuia_roseo-alba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tabebuia roseo-alba est une espèce d'arbre de la famille des Bignoniaceae.
 Il est originaire des Cerrado et Pantanal au Brésil. Il est utilisé comme arbre d'ornement au Brésil et en Argentine en raison de son abondante floraison blanche ou rose.
